--- a/birdexv2/TKOrder.xlsx
+++ b/birdexv2/TKOrder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429">
   <si>
     <t>areaCode</t>
   </si>
@@ -88,43 +88,49 @@
     <t>name</t>
   </si>
   <si>
+    <t>L2B</t>
+  </si>
+  <si>
+    <t>PDX</t>
+  </si>
+  <si>
+    <t>CN140510253555</t>
+  </si>
+  <si>
+    <t>FH Group</t>
+  </si>
+  <si>
+    <t>奶粉</t>
+  </si>
+  <si>
+    <t>note-1</t>
+  </si>
+  <si>
+    <t>婴儿理发器,</t>
+  </si>
+  <si>
+    <t>test0512</t>
+  </si>
+  <si>
+    <t>xieshitong</t>
+  </si>
+  <si>
+    <t>广东省 深圳市 福田区 天安数码城</t>
+  </si>
+  <si>
+    <t>010-55557777</t>
+  </si>
+  <si>
+    <t>xie_shitong@163.com</t>
+  </si>
+  <si>
+    <t>谢-1</t>
+  </si>
+  <si>
     <t>E2B</t>
   </si>
   <si>
     <t>TM</t>
-  </si>
-  <si>
-    <t>CN140510253555</t>
-  </si>
-  <si>
-    <t>FH Group</t>
-  </si>
-  <si>
-    <t>奶粉</t>
-  </si>
-  <si>
-    <t>note-1</t>
-  </si>
-  <si>
-    <t>婴儿理发器,</t>
-  </si>
-  <si>
-    <t>test0512</t>
-  </si>
-  <si>
-    <t>xieshitong</t>
-  </si>
-  <si>
-    <t>广东省 深圳市 福田区 天安数码城</t>
-  </si>
-  <si>
-    <t>010-55557777</t>
-  </si>
-  <si>
-    <t>xie_shitong@163.com</t>
-  </si>
-  <si>
-    <t>谢-1</t>
   </si>
   <si>
     <t>CN140510510426</t>
@@ -1309,7 +1315,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1339,14 +1345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1361,9 +1359,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1371,43 +1383,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,16 +1412,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1461,23 +1466,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,7 +1482,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,31 +1584,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,109 +1650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,25 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1683,15 +1673,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1706,6 +1687,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1725,17 +1739,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1754,35 +1773,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1791,10 +1781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1803,137 +1793,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1941,6 +1931,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2269,8 +2262,8 @@
   <sheetPr/>
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2421,13 +2414,13 @@
       <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="W2" s="2">
         <v>4.31103198611458e+17</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2436,31 +2429,31 @@
         <v>610055</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3">
         <v>2</v>
       </c>
       <c r="F3" s="1">
         <v>42557.446412037</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>2014112520141120</v>
@@ -2475,7 +2468,7 @@
         <v>34.99</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
         <v>32</v>
@@ -2490,16 +2483,16 @@
         <v>13000004444</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="W3" s="2">
         <v>4.31181198404164e+17</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>45</v>
+      <c r="X3" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:24">
@@ -2507,31 +2500,31 @@
         <v>610056</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+        <v>48</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.88</v>
       </c>
       <c r="F4" s="1">
         <v>42558.4464236111</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>20141125</v>
@@ -2561,16 +2554,16 @@
         <v>13000556633</v>
       </c>
       <c r="T4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="W4" s="2">
         <v>4.31223198809062e+17</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>50</v>
+      <c r="X4" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="1:24">
@@ -2578,13 +2571,13 @@
         <v>610057</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2593,16 +2586,16 @@
         <v>42559.4464351852</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>9110091</v>
@@ -2632,16 +2625,16 @@
         <v>13000556633</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="W5" s="2">
         <v>4.31223199003102e+17</v>
       </c>
-      <c r="X5" s="3" t="s">
-        <v>57</v>
+      <c r="X5" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" ht="13.5" spans="1:24">
@@ -2649,13 +2642,13 @@
         <v>610058</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2664,16 +2657,16 @@
         <v>42560.4464467593</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K6">
         <v>9110092</v>
@@ -2688,7 +2681,7 @@
         <v>24.99</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s">
         <v>32</v>
@@ -2703,16 +2696,16 @@
         <v>13029218273</v>
       </c>
       <c r="T6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>64</v>
+        <v>45</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="W6" s="2">
         <v>4.31223199005302e+17</v>
       </c>
-      <c r="X6" s="3" t="s">
-        <v>65</v>
+      <c r="X6" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="13.5" spans="1:24">
@@ -2720,13 +2713,13 @@
         <v>610059</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -2735,16 +2728,16 @@
         <v>42561.4464583333</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K7">
         <v>9110091</v>
@@ -2759,13 +2752,13 @@
         <v>34.99</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R7">
         <v>323232</v>
@@ -2774,16 +2767,16 @@
         <v>13100001111</v>
       </c>
       <c r="T7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="W7" s="2">
         <v>4.31223199005302e+17</v>
       </c>
-      <c r="X7" s="3" t="s">
-        <v>74</v>
+      <c r="X7" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="13.5" spans="1:24">
@@ -2791,13 +2784,13 @@
         <v>610060</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -2806,16 +2799,16 @@
         <v>42562.4464699074</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>9110092</v>
@@ -2830,7 +2823,7 @@
         <v>24.99</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
         <v>32</v>
@@ -2845,16 +2838,16 @@
         <v>13165659999</v>
       </c>
       <c r="T8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="W8" s="2">
         <v>4.31223199005302e+17</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>81</v>
+      <c r="X8" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="1:24">
@@ -2862,13 +2855,13 @@
         <v>610061</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -2877,16 +2870,16 @@
         <v>42563.4464814815</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K9">
         <v>9120001</v>
@@ -2901,7 +2894,7 @@
         <v>34.99</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
         <v>32</v>
@@ -2916,16 +2909,16 @@
         <v>13200001111</v>
       </c>
       <c r="T9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>88</v>
+        <v>45</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="W9" s="2">
         <v>4.32615174212236e+17</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>89</v>
+      <c r="X9" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" ht="13.5" spans="1:24">
@@ -2933,13 +2926,13 @@
         <v>610062</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -2948,16 +2941,16 @@
         <v>42564.4464930556</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K10">
         <v>9120002</v>
@@ -2972,13 +2965,13 @@
         <v>24.99</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P10" t="s">
         <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R10">
         <v>326598</v>
@@ -2987,16 +2980,16 @@
         <v>13212125454</v>
       </c>
       <c r="T10" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>97</v>
+        <v>45</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" ht="13.5" spans="1:24">
@@ -3004,13 +2997,13 @@
         <v>610063</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -3019,16 +3012,16 @@
         <v>42565.4465046296</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K11">
         <v>9120001</v>
@@ -3043,7 +3036,7 @@
         <v>34.99</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P11" t="s">
         <v>32</v>
@@ -3060,14 +3053,14 @@
       <c r="T11">
         <v>75526859982</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>97</v>
+      <c r="U11" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W11" s="2">
         <v>1.23456000000001e+17</v>
       </c>
-      <c r="X11" s="3" t="s">
-        <v>106</v>
+      <c r="X11" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" ht="13.5" spans="1:24">
@@ -3075,13 +3068,13 @@
         <v>610064</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -3090,13 +3083,13 @@
         <v>42566.4465162037</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
         <v>30</v>
@@ -3114,13 +3107,13 @@
         <v>24.99</v>
       </c>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P12" t="s">
         <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R12">
         <v>330013</v>
@@ -3131,14 +3124,14 @@
       <c r="T12">
         <v>75526859982</v>
       </c>
-      <c r="U12" s="5" t="s">
-        <v>97</v>
+      <c r="U12" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W12" s="2">
         <v>4.4010113010202e+17</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>113</v>
+      <c r="X12" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" ht="13.5" spans="1:24">
@@ -3146,13 +3139,13 @@
         <v>610065</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -3161,16 +3154,16 @@
         <v>42567.4465277778</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>9120001</v>
@@ -3185,13 +3178,13 @@
         <v>34.99</v>
       </c>
       <c r="O13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P13" t="s">
         <v>32</v>
       </c>
       <c r="Q13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R13">
         <v>330013</v>
@@ -3202,14 +3195,14 @@
       <c r="T13">
         <v>75526859982</v>
       </c>
-      <c r="U13" s="5" t="s">
-        <v>97</v>
+      <c r="U13" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W13" s="2">
         <v>4.40101198606243e+17</v>
       </c>
-      <c r="X13" s="3" t="s">
-        <v>120</v>
+      <c r="X13" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" ht="13.5" spans="1:24">
@@ -3217,13 +3210,13 @@
         <v>610066</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -3232,16 +3225,16 @@
         <v>42568.4465393519</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>9120002</v>
@@ -3256,13 +3249,13 @@
         <v>24.99</v>
       </c>
       <c r="O14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P14" t="s">
         <v>32</v>
       </c>
       <c r="Q14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R14">
         <v>330013</v>
@@ -3273,14 +3266,14 @@
       <c r="T14">
         <v>75526859982</v>
       </c>
-      <c r="U14" s="5" t="s">
-        <v>97</v>
+      <c r="U14" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W14" s="2">
         <v>4.40103382716287e+17</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>127</v>
+      <c r="X14" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="1:24">
@@ -3288,13 +3281,13 @@
         <v>610067</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -3303,16 +3296,16 @@
         <v>42569.4465509259</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L15">
         <v>920051402</v>
@@ -3324,13 +3317,13 @@
         <v>34.99</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R15">
         <v>330013</v>
@@ -3339,16 +3332,16 @@
         <v>13222222222</v>
       </c>
       <c r="T15" t="s">
-        <v>135</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>97</v>
+        <v>137</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W15" s="2">
         <v>4.40103391827261e+17</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>136</v>
+      <c r="X15" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="16" ht="13.5" spans="1:24">
@@ -3356,13 +3349,13 @@
         <v>610068</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -3371,16 +3364,16 @@
         <v>42570.4465625</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L16">
         <v>920051403</v>
@@ -3392,10 +3385,10 @@
         <v>24.99</v>
       </c>
       <c r="O16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>110000</v>
@@ -3407,16 +3400,16 @@
         <v>13225546558</v>
       </c>
       <c r="T16" t="s">
-        <v>135</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>97</v>
+        <v>137</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W16" s="2">
         <v>4.40301139827362e+17</v>
       </c>
-      <c r="X16" s="3" t="s">
-        <v>142</v>
+      <c r="X16" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" ht="13.5" spans="1:24">
@@ -3424,13 +3417,13 @@
         <v>610069</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -3439,13 +3432,13 @@
         <v>42571.4465740741</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K17">
         <v>9120005</v>
@@ -3460,13 +3453,13 @@
         <v>34.99</v>
       </c>
       <c r="O17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R17">
         <v>330013</v>
@@ -3475,16 +3468,16 @@
         <v>13232320011</v>
       </c>
       <c r="T17" t="s">
-        <v>148</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>97</v>
+        <v>150</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W17" s="2">
         <v>4.40301187625162e+17</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>149</v>
+      <c r="X17" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18" ht="13.5" spans="1:24">
@@ -3492,13 +3485,13 @@
         <v>610070</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -3507,16 +3500,16 @@
         <v>42572.4465856482</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>9120005</v>
@@ -3531,13 +3524,13 @@
         <v>24.99</v>
       </c>
       <c r="O18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R18">
         <v>330013</v>
@@ -3546,16 +3539,16 @@
         <v>13245623214</v>
       </c>
       <c r="T18" t="s">
-        <v>148</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>97</v>
+        <v>150</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W18" s="2">
         <v>4.40301192783212e+16</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>156</v>
+      <c r="X18" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="19" ht="13.5" spans="1:24">
@@ -3563,13 +3556,13 @@
         <v>610071</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -3578,16 +3571,16 @@
         <v>42573.4465972222</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K19">
         <v>9120007</v>
@@ -3602,13 +3595,13 @@
         <v>24.99</v>
       </c>
       <c r="O19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R19">
         <v>331122</v>
@@ -3617,16 +3610,16 @@
         <v>13245673244</v>
       </c>
       <c r="T19" t="s">
-        <v>164</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>97</v>
+        <v>166</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W19" s="2">
         <v>4.40301198202121e+17</v>
       </c>
-      <c r="X19" s="3" t="s">
-        <v>165</v>
+      <c r="X19" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="20" ht="13.5" spans="1:24">
@@ -3634,13 +3627,13 @@
         <v>610072</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -3649,16 +3642,16 @@
         <v>42574.4466087963</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K20">
         <v>9120007</v>
@@ -3673,13 +3666,13 @@
         <v>24.99</v>
       </c>
       <c r="O20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="R20">
         <v>331122</v>
@@ -3688,16 +3681,16 @@
         <v>13245678542</v>
       </c>
       <c r="T20" t="s">
-        <v>173</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>97</v>
+        <v>175</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W20" s="2">
         <v>4.40301198706234e+17</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>174</v>
+      <c r="X20" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:24">
@@ -3705,13 +3698,13 @@
         <v>610073</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -3720,16 +3713,16 @@
         <v>42575.4466203704</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K21">
         <v>91200017</v>
@@ -3744,10 +3737,10 @@
         <v>24.99</v>
       </c>
       <c r="O21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>18421321</v>
@@ -3759,16 +3752,16 @@
         <v>13245678547</v>
       </c>
       <c r="T21" t="s">
-        <v>173</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>97</v>
+        <v>175</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W21" s="2">
         <v>4.40301198706285e+17</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>181</v>
+      <c r="X21" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22" ht="13.5" spans="1:24">
@@ -3776,13 +3769,13 @@
         <v>610074</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -3791,16 +3784,16 @@
         <v>42576.4466319444</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K22">
         <v>91200017</v>
@@ -3815,13 +3808,13 @@
         <v>24.99</v>
       </c>
       <c r="O22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="R22">
         <v>332800</v>
@@ -3830,16 +3823,16 @@
         <v>13245678547</v>
       </c>
       <c r="T22" t="s">
-        <v>189</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>97</v>
+        <v>191</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W22" s="2">
         <v>4.40301199004124e+17</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>190</v>
+      <c r="X22" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="23" ht="13.5" spans="1:24">
@@ -3847,13 +3840,13 @@
         <v>610075</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -3862,13 +3855,13 @@
         <v>42577.4466435185</v>
       </c>
       <c r="G23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K23">
         <v>91200017</v>
@@ -3883,13 +3876,13 @@
         <v>24.99</v>
       </c>
       <c r="O23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R23">
         <v>334400</v>
@@ -3898,16 +3891,16 @@
         <v>13245678547</v>
       </c>
       <c r="T23" t="s">
-        <v>196</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="W23" s="2">
         <v>4.40301982010108e+16</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>198</v>
+      <c r="X23" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="24" ht="13.5" spans="1:24">
@@ -3915,13 +3908,13 @@
         <v>610076</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -3930,16 +3923,16 @@
         <v>42578.4466550926</v>
       </c>
       <c r="G24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K24">
         <v>91200027</v>
@@ -3954,13 +3947,13 @@
         <v>24.99</v>
       </c>
       <c r="O24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R24">
         <v>400000</v>
@@ -3969,16 +3962,16 @@
         <v>13245678547</v>
       </c>
       <c r="T24" t="s">
-        <v>205</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="25" ht="13.5" spans="1:24">
@@ -3986,13 +3979,13 @@
         <v>610077</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -4001,16 +3994,16 @@
         <v>42579.4466666667</v>
       </c>
       <c r="G25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K25">
         <v>888828</v>
@@ -4019,19 +4012,19 @@
         <v>14052104</v>
       </c>
       <c r="M25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N25">
         <v>24.99</v>
       </c>
       <c r="O25" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R25">
         <v>419511</v>
@@ -4040,16 +4033,16 @@
         <v>13245678547</v>
       </c>
       <c r="T25" t="s">
-        <v>216</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="W25" s="2">
         <v>4.40921199309151e+17</v>
       </c>
-      <c r="X25" s="3" t="s">
-        <v>218</v>
+      <c r="X25" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="26" ht="13.5" spans="1:24">
@@ -4057,13 +4050,13 @@
         <v>610078</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -4072,16 +4065,16 @@
         <v>42580.4466782407</v>
       </c>
       <c r="G26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K26">
         <v>888828</v>
@@ -4090,19 +4083,19 @@
         <v>140521008</v>
       </c>
       <c r="M26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N26">
         <v>24.99</v>
       </c>
       <c r="O26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R26">
         <v>420116</v>
@@ -4111,16 +4104,16 @@
         <v>13255660055</v>
       </c>
       <c r="T26" t="s">
-        <v>226</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="W26" s="2">
         <v>4.40982198906072e+17</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>228</v>
+      <c r="X26" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="27" ht="13.5" spans="1:24">
@@ -4128,13 +4121,13 @@
         <v>610079</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -4143,31 +4136,31 @@
         <v>42581.4466898148</v>
       </c>
       <c r="H27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L27">
         <v>140521009</v>
       </c>
       <c r="M27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N27">
         <v>34.99</v>
       </c>
       <c r="O27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R27">
         <v>432000</v>
@@ -4176,16 +4169,16 @@
         <v>13265479875</v>
       </c>
       <c r="T27" t="s">
-        <v>226</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="W27" s="2">
         <v>4.41424197612226e+17</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>235</v>
+      <c r="X27" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="28" ht="13.5" spans="1:24">
@@ -4193,13 +4186,13 @@
         <v>610080</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -4208,31 +4201,31 @@
         <v>42582.4467013889</v>
       </c>
       <c r="H28" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L28">
         <v>140521010</v>
       </c>
       <c r="M28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N28">
         <v>24.99</v>
       </c>
       <c r="O28" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R28">
         <v>433000</v>
@@ -4241,16 +4234,16 @@
         <v>13265498896</v>
       </c>
       <c r="T28" t="s">
-        <v>242</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="W28" s="2">
         <v>4.41424197612226e+17</v>
       </c>
-      <c r="X28" s="3" t="s">
-        <v>244</v>
+      <c r="X28" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="29" ht="13.5" spans="1:24">
@@ -4258,13 +4251,13 @@
         <v>610081</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -4273,10 +4266,10 @@
         <v>42583.446712963</v>
       </c>
       <c r="H29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J29" t="s">
         <v>30</v>
@@ -4291,10 +4284,10 @@
         <v>34.99</v>
       </c>
       <c r="O29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q29">
         <v>518000</v>
@@ -4306,16 +4299,16 @@
         <v>13300002222</v>
       </c>
       <c r="T29" t="s">
-        <v>242</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="W29" s="2">
         <v>4.41424197612226e+17</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>250</v>
+      <c r="X29" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="30" ht="13.5" spans="1:24">
@@ -4323,13 +4316,13 @@
         <v>610082</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -4338,13 +4331,13 @@
         <v>42584.446724537</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K30">
         <v>91200017</v>
@@ -4359,13 +4352,13 @@
         <v>24.99</v>
       </c>
       <c r="O30" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q30" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R30">
         <v>454515</v>
@@ -4376,14 +4369,14 @@
       <c r="T30">
         <v>18938910000</v>
       </c>
-      <c r="U30" s="4" t="s">
-        <v>258</v>
+      <c r="U30" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="W30" s="2">
         <v>4.41522199114512e+17</v>
       </c>
-      <c r="X30" s="3" t="s">
-        <v>259</v>
+      <c r="X30" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="31" ht="13.5" spans="1:24">
@@ -4391,13 +4384,13 @@
         <v>610083</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -4406,13 +4399,13 @@
         <v>42585.4467361111</v>
       </c>
       <c r="H31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K31">
         <v>91200027</v>
@@ -4427,13 +4420,13 @@
         <v>24.99</v>
       </c>
       <c r="O31" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="R31">
         <v>454545</v>
@@ -4444,14 +4437,14 @@
       <c r="T31">
         <v>18938910000</v>
       </c>
-      <c r="U31" s="4" t="s">
-        <v>267</v>
+      <c r="U31" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="W31" s="2">
         <v>4415221992154650</v>
       </c>
-      <c r="X31" s="3" t="s">
-        <v>268</v>
+      <c r="X31" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="32" ht="13.5" spans="1:24">
@@ -4459,13 +4452,13 @@
         <v>610084</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -4474,13 +4467,13 @@
         <v>42586.4467476852</v>
       </c>
       <c r="H32" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J32" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K32">
         <v>888828</v>
@@ -4495,13 +4488,13 @@
         <v>24.99</v>
       </c>
       <c r="O32" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P32" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="R32">
         <v>461366</v>
@@ -4512,14 +4505,14 @@
       <c r="T32">
         <v>18938910000</v>
       </c>
-      <c r="U32" s="4" t="s">
-        <v>275</v>
+      <c r="U32" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="W32" s="2">
         <v>4.4343419840902e+17</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>276</v>
+      <c r="X32" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="33" ht="13.5" spans="1:24">
@@ -4527,13 +4520,13 @@
         <v>610085</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -4542,13 +4535,13 @@
         <v>42587.4467592593</v>
       </c>
       <c r="H33" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>888828</v>
@@ -4563,13 +4556,13 @@
         <v>34.99</v>
       </c>
       <c r="O33" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P33" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q33" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R33">
         <v>461366</v>
@@ -4580,14 +4573,14 @@
       <c r="T33">
         <v>18938911111</v>
       </c>
-      <c r="U33" s="4" t="s">
-        <v>283</v>
+      <c r="U33" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="34" ht="13.5" spans="1:24">
@@ -4595,13 +4588,13 @@
         <v>610086</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -4610,13 +4603,13 @@
         <v>42588.4467708333</v>
       </c>
       <c r="H34" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L34">
         <v>140521015</v>
@@ -4628,13 +4621,13 @@
         <v>24.99</v>
       </c>
       <c r="O34" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P34" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q34" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R34">
         <v>511000</v>
@@ -4645,14 +4638,14 @@
       <c r="T34">
         <v>18938911111</v>
       </c>
-      <c r="U34" s="4" t="s">
-        <v>292</v>
+      <c r="U34" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="W34" s="2">
         <v>3.21456190012213e+17</v>
       </c>
-      <c r="X34" s="3" t="s">
-        <v>293</v>
+      <c r="X34" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="35" ht="13.5" spans="1:24">
@@ -4660,13 +4653,13 @@
         <v>610087</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -4675,10 +4668,10 @@
         <v>42589.4467824074</v>
       </c>
       <c r="H35" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I35" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J35" t="s">
         <v>30</v>
@@ -4693,13 +4686,13 @@
         <v>24.99</v>
       </c>
       <c r="O35" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P35" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q35" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R35">
         <v>512900</v>
@@ -4710,14 +4703,14 @@
       <c r="T35">
         <v>18938911111</v>
       </c>
-      <c r="U35" s="4" t="s">
-        <v>300</v>
+      <c r="U35" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="W35" s="2">
         <v>4.4512219841125e+17</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>301</v>
+      <c r="X35" s="4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="36" ht="13.5" spans="1:24">
@@ -4725,13 +4718,13 @@
         <v>610088</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -4740,13 +4733,13 @@
         <v>42590.4467939815</v>
       </c>
       <c r="H36" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K36">
         <v>9120010</v>
@@ -4761,13 +4754,13 @@
         <v>34.99</v>
       </c>
       <c r="O36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P36" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q36" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="R36">
         <v>512900</v>
@@ -4778,14 +4771,14 @@
       <c r="T36">
         <v>18938911111</v>
       </c>
-      <c r="U36" s="4" t="s">
-        <v>308</v>
+      <c r="U36" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="W36" s="2">
         <v>4.4512219881229e+17</v>
       </c>
-      <c r="X36" s="3" t="s">
-        <v>309</v>
+      <c r="X36" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="37" ht="13.5" spans="1:24">
@@ -4793,13 +4786,13 @@
         <v>610089</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -4808,13 +4801,13 @@
         <v>42591.4468055556</v>
       </c>
       <c r="H37" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J37" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K37">
         <v>91200109120010</v>
@@ -4829,13 +4822,13 @@
         <v>24.99</v>
       </c>
       <c r="O37" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P37" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q37" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="R37">
         <v>512900</v>
@@ -4846,14 +4839,14 @@
       <c r="T37">
         <v>18938911111</v>
       </c>
-      <c r="U37" s="4" t="s">
-        <v>317</v>
+      <c r="U37" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="W37" s="2">
         <v>4.4520219821116e+17</v>
       </c>
-      <c r="X37" s="3" t="s">
-        <v>318</v>
+      <c r="X37" s="4" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="38" ht="13.5" spans="1:24">
@@ -4861,13 +4854,13 @@
         <v>610090</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -4876,13 +4869,13 @@
         <v>42592.4468171296</v>
       </c>
       <c r="H38" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J38" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K38">
         <v>9120011</v>
@@ -4894,13 +4887,13 @@
         <v>34.99</v>
       </c>
       <c r="O38" t="s">
-        <v>322</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="Q38" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="R38">
         <v>512900</v>
@@ -4911,14 +4904,14 @@
       <c r="T38">
         <v>18938911111</v>
       </c>
-      <c r="U38" s="4" t="s">
-        <v>325</v>
+      <c r="U38" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="W38" s="2">
         <v>3.3072619650704e+17</v>
       </c>
-      <c r="X38" s="3" t="s">
-        <v>326</v>
+      <c r="X38" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="39" ht="13.5" spans="1:24">
@@ -4926,13 +4919,13 @@
         <v>610091</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -4941,10 +4934,10 @@
         <v>42593.4468287037</v>
       </c>
       <c r="H39" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K39">
         <v>91200119120011</v>
@@ -4959,10 +4952,10 @@
         <v>34.99</v>
       </c>
       <c r="O39" t="s">
-        <v>330</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="Q39">
         <v>518020</v>
@@ -4976,14 +4969,14 @@
       <c r="T39">
         <v>18938911111</v>
       </c>
-      <c r="U39" s="4" t="s">
-        <v>332</v>
+      <c r="U39" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="W39" s="2">
         <v>4.45221198412012e+17</v>
       </c>
-      <c r="X39" s="3" t="s">
-        <v>333</v>
+      <c r="X39" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="40" ht="13.5" spans="1:24">
@@ -4991,13 +4984,13 @@
         <v>610092</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -5006,13 +4999,13 @@
         <v>42594.4468402778</v>
       </c>
       <c r="H40" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>9120012</v>
@@ -5027,13 +5020,13 @@
         <v>24.99</v>
       </c>
       <c r="O40" t="s">
-        <v>337</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="Q40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R40">
         <v>514200</v>
@@ -5044,14 +5037,14 @@
       <c r="T40">
         <v>18938911111</v>
       </c>
-      <c r="U40" s="4" t="s">
-        <v>339</v>
+      <c r="U40" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="W40" s="2">
         <v>4.45221198501122e+17</v>
       </c>
-      <c r="X40" s="3" t="s">
-        <v>340</v>
+      <c r="X40" s="4" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="41" ht="13.5" spans="1:24">
@@ -5059,13 +5052,13 @@
         <v>610093</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -5074,13 +5067,13 @@
         <v>42595.4468518519</v>
       </c>
       <c r="H41" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I41" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J41" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K41">
         <v>91200129120012</v>
@@ -5095,13 +5088,13 @@
         <v>34.99</v>
       </c>
       <c r="O41" t="s">
-        <v>345</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="Q41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R41">
         <v>515200</v>
@@ -5112,14 +5105,14 @@
       <c r="T41">
         <v>18938911111</v>
       </c>
-      <c r="U41" s="4" t="s">
-        <v>347</v>
+      <c r="U41" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="W41" s="2">
         <v>4.45221198510211e+17</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>348</v>
+      <c r="X41" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="42" ht="13.5" spans="1:24">
@@ -5127,13 +5120,13 @@
         <v>610094</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -5142,13 +5135,13 @@
         <v>42596.4468634259</v>
       </c>
       <c r="H42" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I42" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>888828</v>
@@ -5163,13 +5156,13 @@
         <v>34.99</v>
       </c>
       <c r="O42" t="s">
-        <v>352</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="Q42" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="R42">
         <v>515488</v>
@@ -5180,14 +5173,14 @@
       <c r="T42">
         <v>18938911111</v>
       </c>
-      <c r="U42" s="4" t="s">
-        <v>355</v>
+      <c r="U42" s="5" t="s">
+        <v>357</v>
       </c>
       <c r="W42" s="2">
         <v>4.45221198512012e+17</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>356</v>
+      <c r="X42" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="43" ht="13.5" spans="1:24">
@@ -5195,13 +5188,13 @@
         <v>610095</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -5210,13 +5203,13 @@
         <v>42597.446875</v>
       </c>
       <c r="H43" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I43" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J43" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K43">
         <v>91200429120042</v>
@@ -5231,13 +5224,13 @@
         <v>24.99</v>
       </c>
       <c r="O43" t="s">
-        <v>360</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="Q43" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="R43">
         <v>515488</v>
@@ -5248,14 +5241,14 @@
       <c r="T43">
         <v>18938911112</v>
       </c>
-      <c r="U43" s="4" t="s">
-        <v>363</v>
+      <c r="U43" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="W43" s="2">
         <v>4.45221198512102e+17</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>364</v>
+      <c r="X43" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="44" ht="13.5" spans="1:24">
@@ -5263,13 +5256,13 @@
         <v>610096</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -5278,13 +5271,13 @@
         <v>42598.4468865741</v>
       </c>
       <c r="H44" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I44" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>888828</v>
@@ -5299,13 +5292,13 @@
         <v>34.99</v>
       </c>
       <c r="O44" t="s">
-        <v>368</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="Q44" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="R44">
         <v>515800</v>
@@ -5316,14 +5309,14 @@
       <c r="T44">
         <v>18938911113</v>
       </c>
-      <c r="U44" s="4" t="s">
-        <v>371</v>
+      <c r="U44" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="W44" s="2">
         <v>4.45221198610212e+17</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>372</v>
+      <c r="X44" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="45" ht="13.5" spans="1:24">
@@ -5331,13 +5324,13 @@
         <v>610097</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -5346,13 +5339,13 @@
         <v>42599.4468981482</v>
       </c>
       <c r="H45" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I45" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K45">
         <v>888828</v>
@@ -5364,10 +5357,10 @@
         <v>24.99</v>
       </c>
       <c r="O45" t="s">
-        <v>376</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="Q45">
         <v>112401</v>
@@ -5381,14 +5374,14 @@
       <c r="T45">
         <v>18938911114</v>
       </c>
-      <c r="U45" s="4" t="s">
-        <v>378</v>
+      <c r="U45" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="W45" s="2">
         <v>4.45221198610235e+17</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>379</v>
+      <c r="X45" s="4" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="46" ht="13.5" spans="1:24">
@@ -5396,13 +5389,13 @@
         <v>610098</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -5411,13 +5404,13 @@
         <v>42600.4469097222</v>
       </c>
       <c r="H46" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I46" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K46">
         <v>888828</v>
@@ -5432,10 +5425,10 @@
         <v>24.99</v>
       </c>
       <c r="O46" t="s">
-        <v>383</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="Q46">
         <v>112401</v>
@@ -5449,14 +5442,14 @@
       <c r="T46">
         <v>18938911114</v>
       </c>
-      <c r="U46" s="4" t="s">
-        <v>385</v>
+      <c r="U46" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="W46" s="2">
         <v>4.45221198610235e+17</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>386</v>
+      <c r="X46" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="47" ht="13.5" spans="1:24">
@@ -5464,13 +5457,13 @@
         <v>610099</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -5479,13 +5472,13 @@
         <v>42601.4469212963</v>
       </c>
       <c r="H47" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I47" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>888828</v>
@@ -5497,13 +5490,13 @@
         <v>24.99</v>
       </c>
       <c r="O47" t="s">
-        <v>390</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="Q47" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R47">
         <v>51800</v>
@@ -5514,14 +5507,14 @@
       <c r="T47">
         <v>18938911115</v>
       </c>
-      <c r="U47" s="4" t="s">
-        <v>393</v>
+      <c r="U47" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="W47" s="2">
         <v>4.45221198652121e+17</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>394</v>
+      <c r="X47" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="48" ht="13.5" spans="1:24">
@@ -5529,13 +5522,13 @@
         <v>610100</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -5544,13 +5537,13 @@
         <v>42602.4469328704</v>
       </c>
       <c r="H48" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I48" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J48" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K48">
         <v>9120000044</v>
@@ -5565,13 +5558,13 @@
         <v>34.99</v>
       </c>
       <c r="O48" t="s">
-        <v>399</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="Q48" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="R48">
         <v>51800</v>
@@ -5582,14 +5575,14 @@
       <c r="T48">
         <v>18938911119</v>
       </c>
-      <c r="U48" s="4" t="s">
-        <v>402</v>
+      <c r="U48" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="W48" s="2">
         <v>3.60425199212233e+17</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>403</v>
+      <c r="X48" s="4" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="49" ht="13.5" spans="1:24">
@@ -5597,13 +5590,13 @@
         <v>610101</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -5612,13 +5605,13 @@
         <v>42603.4469444444</v>
       </c>
       <c r="H49" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I49" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J49" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K49">
         <v>9.120000044912e+19</v>
@@ -5633,13 +5626,13 @@
         <v>24.99</v>
       </c>
       <c r="O49" t="s">
-        <v>407</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="Q49" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="R49">
         <v>518000</v>
@@ -5650,14 +5643,14 @@
       <c r="T49">
         <v>18938919682</v>
       </c>
-      <c r="U49" s="4" t="s">
-        <v>409</v>
+      <c r="U49" s="5" t="s">
+        <v>411</v>
       </c>
       <c r="W49" s="2">
         <v>4.452211990101e+17</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>410</v>
+      <c r="X49" s="4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="50" ht="13.5" spans="1:24">
@@ -5665,13 +5658,13 @@
         <v>610102</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -5680,13 +5673,13 @@
         <v>42604.4469560185</v>
       </c>
       <c r="H50" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I50" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J50" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L50">
         <v>1405270114052700</v>
@@ -5695,13 +5688,13 @@
         <v>34.99</v>
       </c>
       <c r="O50" t="s">
-        <v>414</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="Q50" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="R50">
         <v>518000</v>
@@ -5712,14 +5705,14 @@
       <c r="T50">
         <v>18938919682</v>
       </c>
-      <c r="U50" s="4" t="s">
-        <v>417</v>
+      <c r="U50" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="W50" s="2">
         <v>4.20111198207014e+17</v>
       </c>
-      <c r="X50" s="3" t="s">
-        <v>418</v>
+      <c r="X50" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="51" ht="13.5" spans="1:24">
@@ -5727,13 +5720,13 @@
         <v>610103</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -5742,13 +5735,13 @@
         <v>42605.4469675926</v>
       </c>
       <c r="H51" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I51" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J51" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L51">
         <v>14052702</v>
@@ -5757,13 +5750,13 @@
         <v>24.99</v>
       </c>
       <c r="O51" t="s">
-        <v>422</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="Q51" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="R51">
         <v>518000</v>
@@ -5774,14 +5767,14 @@
       <c r="T51">
         <v>18938919682</v>
       </c>
-      <c r="U51" s="4" t="s">
-        <v>425</v>
+      <c r="U51" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="W51" s="2">
         <v>5.30121198502181e+17</v>
       </c>
-      <c r="X51" s="3" t="s">
-        <v>426</v>
+      <c r="X51" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
